--- a/slide_data_code_correspondence.xlsx
+++ b/slide_data_code_correspondence.xlsx
@@ -409,6 +409,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="1"/>
     </xf>
@@ -420,12 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +731,7 @@
   <dimension ref="B4:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
   </cols>
@@ -765,7 +765,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -783,7 +783,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
@@ -913,7 +913,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -931,7 +931,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
@@ -981,11 +981,11 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -994,10 +994,10 @@
       <c r="F18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="6" t="s">
         <v>62</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="6" t="s">
         <v>64</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="6" t="s">
         <v>66</v>
       </c>

--- a/slide_data_code_correspondence.xlsx
+++ b/slide_data_code_correspondence.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,109 +196,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ISLR包 内置数据 不用下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income and Voting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dose Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cropland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cases（从前到后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>default_01.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_02.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit Card Default_KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit Card Default_Classification Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit Card Default_ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roc.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode of Transportation</t>
+  </si>
+  <si>
+    <t>Transport_01.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cropchoice.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probit.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ketchup_Multinomial Probit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ketchup.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employment.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employment.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode of Transportation_Welfare analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transport_02.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default.ipynb</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISLR包内置数据  Moodle也可下载 </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISLR包 内置数据 不用下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Income and Voting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dose Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cropland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cases（从前到后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>default_01.R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default_02.R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credit Card Default_KNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credit Card Default_Classification Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credit Card Default_ROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roc.R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mode of Transportation</t>
-  </si>
-  <si>
-    <t>Transport_01.R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cropchoice.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Probit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>probit.R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ketchup_Multinomial Probit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ketchup.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employment.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employment.R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mode of Transportation_Welfare analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transport_02.R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default.ipynb</t>
   </si>
 </sst>
 </file>
@@ -731,7 +727,7 @@
   <dimension ref="B4:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -749,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>35</v>
@@ -807,7 +803,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>33</v>
@@ -823,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>34</v>
@@ -903,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>44</v>
@@ -917,7 +913,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>17</v>
@@ -933,7 +929,7 @@
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
@@ -949,7 +945,7 @@
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>21</v>
@@ -965,57 +961,57 @@
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
@@ -1024,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1034,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>4</v>
@@ -1047,7 +1043,7 @@
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>41</v>
@@ -1056,17 +1052,17 @@
         <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>4</v>
@@ -1079,23 +1075,23 @@
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>23</v>
@@ -1104,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="7"/>
     </row>

--- a/slide_data_code_correspondence.xlsx
+++ b/slide_data_code_correspondence.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,14 +294,76 @@
   </si>
   <si>
     <t xml:space="preserve">ISLR包内置数据  Moodle也可下载 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Selection 
+and Regularization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto.R</t>
+  </si>
+  <si>
+    <t>MPG and Horsepower</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit.csv</t>
+  </si>
+  <si>
+    <t>balance.R</t>
+  </si>
+  <si>
+    <t>Credit Card Balance_Subset Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit Card Balance_Ridge Regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ridge_regression</t>
+  </si>
+  <si>
+    <t>Supermarket Entry</t>
+  </si>
+  <si>
+    <t>Supermarket.csv</t>
+  </si>
+  <si>
+    <t>supermarket.R</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elastic_net.R</t>
+  </si>
+  <si>
+    <t>Stata_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robusterr.do</t>
+  </si>
+  <si>
+    <t>code repolication (空白的部分都可以做“code translation”)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +378,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,8 +399,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -343,14 +418,59 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -358,70 +478,87 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,6 +569,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -480,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,7 +655,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G25"/>
+  <dimension ref="B3:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -735,379 +875,515 @@
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="H5" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="6" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="6" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="6" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="6" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="6" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="6" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="7" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="6" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="6" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="6" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="12" t="s">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="6" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="6" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="6" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="6" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="6" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="6" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+      <c r="C25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="7" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="B14:B24"/>
+  <mergeCells count="4">
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="B3:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/slide_data_code_correspondence.xlsx
+++ b/slide_data_code_correspondence.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Moodle下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAPM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>simulate 不用下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dose.R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ISLR包 内置数据 不用下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Income and Voting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +279,6 @@
   </si>
   <si>
     <t>Default.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISLR包内置数据  Moodle也可下载 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Model Selection 
@@ -356,6 +340,50 @@
   </si>
   <si>
     <t>code repolication (空白的部分都可以做“code translation”)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulate no-need-download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulate no-need-download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in ISLR no-need-download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in ISLR no-need-download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in ISLR ; also available on Moodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moodle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +895,7 @@
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -883,7 +911,7 @@
   <sheetData>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -903,42 +931,42 @@
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
@@ -946,35 +974,35 @@
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
@@ -988,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
@@ -1005,10 +1033,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
@@ -1016,16 +1044,16 @@
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
@@ -1033,16 +1061,16 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
@@ -1050,16 +1078,16 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
@@ -1067,37 +1095,37 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
@@ -1105,16 +1133,16 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
@@ -1122,16 +1150,16 @@
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
@@ -1139,35 +1167,35 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
@@ -1175,16 +1203,16 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
@@ -1192,16 +1220,16 @@
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
@@ -1209,16 +1237,16 @@
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
@@ -1226,16 +1254,16 @@
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
       <c r="C23" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
@@ -1243,16 +1271,16 @@
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
@@ -1260,16 +1288,16 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
@@ -1277,35 +1305,35 @@
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1313,16 +1341,16 @@
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
       <c r="C28" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1330,16 +1358,16 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1347,16 +1375,16 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
       <c r="C30" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1364,16 +1392,16 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
       <c r="C31" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>

--- a/slide_data_code_correspondence.xlsx
+++ b/slide_data_code_correspondence.xlsx
@@ -200,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cases（从前到后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -384,6 +380,10 @@
   </si>
   <si>
     <t>Moodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cases（follow the order it appears in slide）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,13 +895,13 @@
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
@@ -911,7 +911,7 @@
   <sheetData>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -934,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>33</v>
@@ -949,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -980,14 +980,14 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>31</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
@@ -1033,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>36</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>8</v>
@@ -1067,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>11</v>
@@ -1084,7 +1084,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>40</v>
@@ -1101,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>42</v>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>17</v>
@@ -1139,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>18</v>
@@ -1156,7 +1156,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>20</v>
@@ -1167,35 +1167,35 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
@@ -1203,16 +1203,16 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
@@ -1220,16 +1220,16 @@
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
@@ -1240,10 +1240,10 @@
         <v>22</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>23</v>
@@ -1254,16 +1254,16 @@
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
@@ -1271,13 +1271,13 @@
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>24</v>
@@ -1288,16 +1288,16 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
@@ -1305,35 +1305,35 @@
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1341,16 +1341,16 @@
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
       <c r="C28" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1358,16 +1358,16 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1375,16 +1375,16 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
       <c r="C30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1392,16 +1392,16 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
       <c r="C31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>

--- a/slide_data_code_correspondence.xlsx
+++ b/slide_data_code_correspondence.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,306 @@
   </si>
   <si>
     <t>cases（follow the order it appears in slide）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree(Decision tree)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression tree(eg.Baseball Salary)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean in the region as prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classification tree(eg.transport)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>most common case as predicion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criteria in growing a tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>according to the class of y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y is contineous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y is discrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[min RSS in training data]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[min E/ Gini index/ Cross Entropy in training data]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both use a recursive binary splitting method in growing a tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic concepts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advantage and disadvantge of tree method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advantage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②easy to handle qualitative explanatory variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①low predictive accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②high variance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">disadvantge </t>
+  </si>
+  <si>
+    <t>single tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prune a tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build a tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① easy to interprete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstrap+averaging+all X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstrap+averaging+subset of X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①tree (tree, cv.tree)
+②rpart(rpart,prune)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①randomForest(randomForest)
+②ranger
+③caret(train)
+④h2o
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boosting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no bootstrap+sequentially learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①gbm (gbm)
+②caret(train)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistic model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ——classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test error rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method to improve the performance of single tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pruned tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomforest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boosting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boosting is the best model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ——regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagging is the best model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two Simulates in slides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulate 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not control the terminal node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control the terminal node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ——classification(true boundary is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistic model_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagging_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagging_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ——classification(true boundary is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear boundry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-linear boundry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulate 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree-based model gives better model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polish bankruptcy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston House Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R package(main functions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no method can beat the logistica model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +691,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +716,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +760,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -516,11 +855,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,6 +1017,82 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1421,14 +1927,566 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="44"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="44"/>
+      <c r="C5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
+      <c r="C10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
+      <c r="C11" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+    </row>
+    <row r="20" spans="2:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46"/>
+      <c r="C20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+    </row>
+    <row r="21" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="41"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="53">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="53">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="D30" s="54"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="53">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="D31" s="54"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="55">
+        <v>5.21E-2</v>
+      </c>
+      <c r="D32" s="54"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="36"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="42"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="32"/>
+      <c r="C35" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="57">
+        <v>21.89855</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="57">
+        <v>17.341989999999999</v>
+      </c>
+      <c r="D37" s="54"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="57">
+        <v>10.993679999999999</v>
+      </c>
+      <c r="D38" s="54"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="58">
+        <v>8.7883069999999996</v>
+      </c>
+      <c r="D39" s="54"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="57">
+        <v>9.0699480000000001</v>
+      </c>
+      <c r="D40" s="54"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="36"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="42"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="32"/>
+      <c r="C45" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="58">
+        <v>0.17330000000000001</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="57">
+        <v>0.22</v>
+      </c>
+      <c r="D47" s="54"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="57">
+        <v>0.2175</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="57">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="57">
+        <v>0.1933</v>
+      </c>
+      <c r="D50" s="54"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="36"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="42"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="32"/>
+      <c r="C53" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="41"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="57">
+        <v>0.26666669999999998</v>
+      </c>
+      <c r="D54" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="57">
+        <v>0.12666669999999999</v>
+      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="57">
+        <v>0.14166670000000001</v>
+      </c>
+      <c r="D56" s="54"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="57">
+        <v>0.12333330000000001</v>
+      </c>
+      <c r="D57" s="54"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="58">
+        <v>0.105</v>
+      </c>
+      <c r="D58" s="54"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="60">
+        <v>0.1216667</v>
+      </c>
+      <c r="D59" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E4:H11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/slide_data_code_correspondence.xlsx
+++ b/slide_data_code_correspondence.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,62 @@
   </si>
   <si>
     <t>no method can beat the logistica model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport_03.R</t>
+  </si>
+  <si>
+    <t>in MASS no-need-download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housing_01.R</t>
+  </si>
+  <si>
+    <t>Simulation 1</t>
+  </si>
+  <si>
+    <t>trees01.R</t>
+  </si>
+  <si>
+    <t>Simulation 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trees02.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polish Bankruptcy</t>
+  </si>
+  <si>
+    <t>polish.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankruptcy.R</t>
+  </si>
+  <si>
+    <t>housing_02.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston Housing Price_Bagging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston Housing Price_Model Comparing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motorcycle crash test dummy data</t>
+  </si>
+  <si>
+    <t>crash_test.R</t>
+  </si>
+  <si>
+    <t>Decision Trees and Ensemble Methods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -993,30 +1049,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1026,47 +1058,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,9 +1074,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,11 +1084,83 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H31"/>
+  <dimension ref="B3:H38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1416,24 +1484,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
@@ -1459,7 +1527,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1478,7 +1546,7 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1497,7 +1565,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
@@ -1514,7 +1582,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1599,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1616,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1633,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1582,7 +1650,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
@@ -1599,7 +1667,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
@@ -1618,7 +1686,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1637,7 +1705,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1654,7 +1722,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1671,7 +1739,7 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
@@ -1690,7 +1758,7 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
@@ -1707,7 +1775,7 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1724,7 +1792,7 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1741,7 +1809,7 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1758,7 +1826,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="5" t="s">
         <v>56</v>
       </c>
@@ -1775,7 +1843,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="5" t="s">
         <v>58</v>
       </c>
@@ -1792,7 +1860,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
@@ -1809,7 +1877,7 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
@@ -1826,7 +1894,7 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -1845,7 +1913,7 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="9" t="s">
         <v>72</v>
       </c>
@@ -1862,7 +1930,7 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="10" t="s">
         <v>73</v>
       </c>
@@ -1879,7 +1947,7 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="9" t="s">
         <v>75</v>
       </c>
@@ -1896,7 +1964,7 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="9" t="s">
         <v>78</v>
       </c>
@@ -1912,12 +1980,134 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="63"/>
+      <c r="C33" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="63"/>
+      <c r="C34" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="63"/>
+      <c r="C35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="63"/>
+      <c r="C36" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="63"/>
+      <c r="C37" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="64"/>
+      <c r="C38" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B6:B14"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B15:B26"/>
     <mergeCell ref="B3:H4"/>
+    <mergeCell ref="B32:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1929,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -1941,161 +2131,161 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="33" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="41"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="42"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D18" t="s">
@@ -2103,82 +2293,82 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="56" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="2:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -2186,131 +2376,131 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="52" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="41"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="34">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="60" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="34">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="60"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="34">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="60"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="35">
         <v>5.21E-2</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="60"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="42"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="52" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="37">
         <v>21.89855</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="60" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="37">
         <v>17.341989999999999</v>
       </c>
-      <c r="D37" s="54"/>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="37">
         <v>10.993679999999999</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="60"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="38">
         <v>8.7883069999999996</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="60"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="37">
         <v>9.0699480000000001</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="60"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="42"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -2318,103 +2508,103 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="32"/>
-      <c r="C45" s="52" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="41"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="58">
+      <c r="C46" s="38">
         <v>0.17330000000000001</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="60" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="37">
         <v>0.22</v>
       </c>
-      <c r="D47" s="54"/>
+      <c r="D47" s="60"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="37">
         <v>0.2175</v>
       </c>
-      <c r="D48" s="54"/>
+      <c r="D48" s="60"/>
       <c r="E48" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="37">
         <v>0.20669999999999999</v>
       </c>
-      <c r="D49" s="54"/>
+      <c r="D49" s="60"/>
       <c r="E49" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="57">
+      <c r="C50" s="37">
         <v>0.1933</v>
       </c>
-      <c r="D50" s="54"/>
+      <c r="D50" s="60"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="42"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="31"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="32"/>
-      <c r="C53" s="52" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="41"/>
+      <c r="D53" s="29"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="57">
+      <c r="C54" s="37">
         <v>0.26666669999999998</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="60" t="s">
         <v>153</v>
       </c>
       <c r="E54" t="s">
@@ -2422,52 +2612,52 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="57">
+      <c r="C55" s="37">
         <v>0.12666669999999999</v>
       </c>
-      <c r="D55" s="54"/>
+      <c r="D55" s="60"/>
       <c r="E55" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="57">
+      <c r="C56" s="37">
         <v>0.14166670000000001</v>
       </c>
-      <c r="D56" s="54"/>
+      <c r="D56" s="60"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="57">
+      <c r="C57" s="37">
         <v>0.12333330000000001</v>
       </c>
-      <c r="D57" s="54"/>
+      <c r="D57" s="60"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="38">
         <v>0.105</v>
       </c>
-      <c r="D58" s="54"/>
+      <c r="D58" s="60"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="60">
+      <c r="C59" s="39">
         <v>0.1216667</v>
       </c>
-      <c r="D59" s="59"/>
+      <c r="D59" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="12">
